--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC9842E-F671-4170-B301-87B04B377025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0EB47-87FA-479E-9CD3-F3163AF67857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="375" windowWidth="17040" windowHeight="11385" xr2:uid="{76F2BF96-9027-4649-AC46-DC7E2EFCCCF7}"/>
+    <workbookView xWindow="150" yWindow="3795" windowWidth="17040" windowHeight="11385" xr2:uid="{76F2BF96-9027-4649-AC46-DC7E2EFCCCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +54,19 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,9 +89,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -382,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E0DC15-C995-4895-A037-DD71B0BC87C2}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="str">
-        <f xml:space="preserve"> "0b" &amp;A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
-        <v>0b0111111</v>
-      </c>
-      <c r="J2">
+        <f xml:space="preserve"> "0b0" &amp;A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
+        <v>0b00111111</v>
+      </c>
+      <c r="J2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -469,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I11" si="0" xml:space="preserve"> "0b" &amp;A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3</f>
-        <v>0b0000110</v>
-      </c>
-      <c r="J3">
+        <f t="shared" ref="I3:I14" si="0" xml:space="preserve"> "0b0" &amp;A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3</f>
+        <v>0b00000110</v>
+      </c>
+      <c r="J3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -500,9 +530,9 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>0b1011011</v>
-      </c>
-      <c r="J4">
+        <v>0b01011011</v>
+      </c>
+      <c r="J4" s="2">
         <v>2</v>
       </c>
     </row>
@@ -530,9 +560,9 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>0b1001111</v>
-      </c>
-      <c r="J5">
+        <v>0b01001111</v>
+      </c>
+      <c r="J5" s="2">
         <v>3</v>
       </c>
     </row>
@@ -560,9 +590,9 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>0b1100110</v>
-      </c>
-      <c r="J6">
+        <v>0b01100110</v>
+      </c>
+      <c r="J6" s="2">
         <v>4</v>
       </c>
     </row>
@@ -590,9 +620,9 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>0b1101101</v>
-      </c>
-      <c r="J7">
+        <v>0b01101101</v>
+      </c>
+      <c r="J7" s="2">
         <v>5</v>
       </c>
     </row>
@@ -620,9 +650,9 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>0b1111101</v>
-      </c>
-      <c r="J8">
+        <v>0b01111101</v>
+      </c>
+      <c r="J8" s="2">
         <v>6</v>
       </c>
     </row>
@@ -650,9 +680,9 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>0b0000111</v>
-      </c>
-      <c r="J9">
+        <v>0b00000111</v>
+      </c>
+      <c r="J9" s="2">
         <v>7</v>
       </c>
     </row>
@@ -680,9 +710,9 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>0b1111111</v>
-      </c>
-      <c r="J10">
+        <v>0b01111111</v>
+      </c>
+      <c r="J10" s="2">
         <v>8</v>
       </c>
     </row>
@@ -710,10 +740,70 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>0b1100111</v>
-      </c>
-      <c r="J11">
+        <v>0b01100111</v>
+      </c>
+      <c r="J11" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>0b01100011</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>0b00111001</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0EB47-87FA-479E-9CD3-F3163AF67857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE72FE6B-5598-499E-B7BA-9A4FBF2890DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="3795" windowWidth="17040" windowHeight="11385" xr2:uid="{76F2BF96-9027-4649-AC46-DC7E2EFCCCF7}"/>
+    <workbookView xWindow="780" yWindow="1275" windowWidth="17040" windowHeight="11385" xr2:uid="{76F2BF96-9027-4649-AC46-DC7E2EFCCCF7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>°</t>
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -97,6 +100,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E0DC15-C995-4895-A037-DD71B0BC87C2}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,6 +812,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <f xml:space="preserve"> "0b0" &amp;A14&amp;B14&amp;C14&amp;D14&amp;E14&amp;F14&amp;G14</f>
+        <v>0b01011100</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
